--- a/public/exports/consolidated_calls.xlsx
+++ b/public/exports/consolidated_calls.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>name</t>
   </si>
@@ -104,487 +104,517 @@
     <t>HD_CE_Cable</t>
   </si>
   <si>
-    <t>00:09:24</t>
-  </si>
-  <si>
-    <t>03:34:12</t>
+    <t>00:00:37</t>
+  </si>
+  <si>
+    <t>02:32:36</t>
+  </si>
+  <si>
+    <t>00:00:01</t>
+  </si>
+  <si>
+    <t>00:08:01</t>
+  </si>
+  <si>
+    <t>HD_CE_Internet</t>
+  </si>
+  <si>
+    <t>00:20:58</t>
+  </si>
+  <si>
+    <t>20:54:18</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:06:07</t>
+  </si>
+  <si>
+    <t>HD_CE_Operador</t>
+  </si>
+  <si>
+    <t>00:09:33</t>
+  </si>
+  <si>
+    <t>04:10:32</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
+  </si>
+  <si>
+    <t>00:03:54</t>
+  </si>
+  <si>
+    <t>HD_CE_Telefonia</t>
+  </si>
+  <si>
+    <t>00:08:50</t>
+  </si>
+  <si>
+    <t>07:47:07</t>
+  </si>
+  <si>
+    <t>00:06:18</t>
+  </si>
+  <si>
+    <t>ceche</t>
+  </si>
+  <si>
+    <t>00:01:53</t>
+  </si>
+  <si>
+    <t>03:21:50</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
+  </si>
+  <si>
+    <t>00:07:45</t>
+  </si>
+  <si>
+    <t>dayala</t>
+  </si>
+  <si>
+    <t>00:06:47</t>
+  </si>
+  <si>
+    <t>02:28:55</t>
+  </si>
+  <si>
+    <t>00:00:14</t>
+  </si>
+  <si>
+    <t>00:05:19</t>
+  </si>
+  <si>
+    <t>drosas</t>
+  </si>
+  <si>
+    <t>00:01:31</t>
+  </si>
+  <si>
+    <t>02:54:24</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:07:34</t>
+  </si>
+  <si>
+    <t>elopez</t>
+  </si>
+  <si>
+    <t>00:04:32</t>
+  </si>
+  <si>
+    <t>02:34:54</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>00:05:57</t>
+  </si>
+  <si>
+    <t>evilla</t>
+  </si>
+  <si>
+    <t>00:03:05</t>
+  </si>
+  <si>
+    <t>03:09:44</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
+  </si>
+  <si>
+    <t>00:08:14</t>
+  </si>
+  <si>
+    <t>fguerrero</t>
+  </si>
+  <si>
+    <t>00:00:16</t>
+  </si>
+  <si>
+    <t>00:26:32</t>
+  </si>
+  <si>
+    <t>00:02:39</t>
+  </si>
+  <si>
+    <t>gpadilla</t>
+  </si>
+  <si>
+    <t>00:01:44</t>
+  </si>
+  <si>
+    <t>02:30:01</t>
+  </si>
+  <si>
+    <t>00:05:21</t>
+  </si>
+  <si>
+    <t>hcruz</t>
+  </si>
+  <si>
+    <t>00:04:45</t>
+  </si>
+  <si>
+    <t>02:43:00</t>
+  </si>
+  <si>
+    <t>00:05:49</t>
+  </si>
+  <si>
+    <t>ijesus</t>
+  </si>
+  <si>
+    <t>00:09:20</t>
+  </si>
+  <si>
+    <t>00:02:20</t>
+  </si>
+  <si>
+    <t>jantezano</t>
+  </si>
+  <si>
+    <t>00:03:08</t>
+  </si>
+  <si>
+    <t>01:42:23</t>
   </si>
   <si>
     <t>00:00:11</t>
   </si>
   <si>
+    <t>00:06:01</t>
+  </si>
+  <si>
+    <t>ldelacruz</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>01:37:42</t>
+  </si>
+  <si>
+    <t>00:07:30</t>
+  </si>
+  <si>
+    <t>mfalcon</t>
+  </si>
+  <si>
+    <t>00:04:15</t>
+  </si>
+  <si>
+    <t>03:06:46</t>
+  </si>
+  <si>
+    <t>00:05:29</t>
+  </si>
+  <si>
+    <t>nramon</t>
+  </si>
+  <si>
+    <t>00:03:18</t>
+  </si>
+  <si>
+    <t>02:40:53</t>
+  </si>
+  <si>
+    <t>ocoa</t>
+  </si>
+  <si>
+    <t>00:01:09</t>
+  </si>
+  <si>
+    <t>01:20:22</t>
+  </si>
+  <si>
+    <t>ppimentel</t>
+  </si>
+  <si>
+    <t>00:01:49</t>
+  </si>
+  <si>
+    <t>02:39:13</t>
+  </si>
+  <si>
     <t>00:04:58</t>
   </si>
   <si>
-    <t>HD_CE_Internet</t>
-  </si>
-  <si>
-    <t>00:54:19</t>
-  </si>
-  <si>
-    <t>28:32:48</t>
-  </si>
-  <si>
-    <t>00:00:10</t>
-  </si>
-  <si>
-    <t>00:05:44</t>
-  </si>
-  <si>
-    <t>HD_CE_Operador</t>
-  </si>
-  <si>
-    <t>00:05:23</t>
-  </si>
-  <si>
-    <t>02:41:50</t>
-  </si>
-  <si>
-    <t>00:05:34</t>
-  </si>
-  <si>
-    <t>HD_CE_Telefonia</t>
-  </si>
-  <si>
-    <t>00:15:30</t>
-  </si>
-  <si>
-    <t>12:15:14</t>
-  </si>
-  <si>
-    <t>00:00:07</t>
-  </si>
-  <si>
-    <t>00:05:58</t>
-  </si>
-  <si>
-    <t>ceche</t>
-  </si>
-  <si>
-    <t>00:07:09</t>
-  </si>
-  <si>
-    <t>04:01:53</t>
-  </si>
-  <si>
-    <t>00:05:45</t>
-  </si>
-  <si>
-    <t>dayala</t>
-  </si>
-  <si>
-    <t>00:07:17</t>
-  </si>
-  <si>
-    <t>03:32:13</t>
-  </si>
-  <si>
-    <t>00:05:03</t>
-  </si>
-  <si>
-    <t>evilla</t>
-  </si>
-  <si>
-    <t>00:07:40</t>
-  </si>
-  <si>
-    <t>03:57:55</t>
-  </si>
-  <si>
-    <t>00:00:14</t>
-  </si>
-  <si>
-    <t>00:07:26</t>
-  </si>
-  <si>
-    <t>fguerrero</t>
-  </si>
-  <si>
-    <t>00:07:18</t>
-  </si>
-  <si>
-    <t>03:17:10</t>
-  </si>
-  <si>
-    <t>00:00:08</t>
-  </si>
-  <si>
-    <t>00:03:56</t>
-  </si>
-  <si>
-    <t>hcruz</t>
-  </si>
-  <si>
-    <t>00:01:45</t>
-  </si>
-  <si>
-    <t>03:51:38</t>
+    <t>rquispe</t>
+  </si>
+  <si>
+    <t>00:17:18</t>
+  </si>
+  <si>
+    <t>00:04:19</t>
+  </si>
+  <si>
+    <t>xvasquez</t>
+  </si>
+  <si>
+    <t>00:00:48</t>
+  </si>
+  <si>
+    <t>01:40:53</t>
   </si>
   <si>
     <t>00:00:02</t>
   </si>
   <si>
-    <t>00:06:26</t>
-  </si>
-  <si>
-    <t>ijesus</t>
-  </si>
-  <si>
-    <t>00:02:00</t>
-  </si>
-  <si>
-    <t>02:15:06</t>
-  </si>
-  <si>
-    <t>00:00:05</t>
-  </si>
-  <si>
-    <t>jaguirre</t>
-  </si>
-  <si>
-    <t>00:19:30</t>
-  </si>
-  <si>
-    <t>00:00:01</t>
-  </si>
-  <si>
-    <t>00:06:30</t>
-  </si>
-  <si>
-    <t>jantezano</t>
-  </si>
-  <si>
-    <t>00:22:43</t>
-  </si>
-  <si>
-    <t>00:07:34</t>
-  </si>
-  <si>
-    <t>kherrera</t>
-  </si>
-  <si>
-    <t>00:11:27</t>
-  </si>
-  <si>
-    <t>03:57:04</t>
-  </si>
-  <si>
-    <t>00:00:17</t>
-  </si>
-  <si>
-    <t>00:05:55</t>
-  </si>
-  <si>
-    <t>ldelacruz</t>
-  </si>
-  <si>
-    <t>00:05:27</t>
-  </si>
-  <si>
-    <t>02:44:48</t>
-  </si>
-  <si>
-    <t>00:00:13</t>
-  </si>
-  <si>
-    <t>00:06:52</t>
-  </si>
-  <si>
-    <t>mfalcon</t>
-  </si>
-  <si>
-    <t>00:06:56</t>
-  </si>
-  <si>
-    <t>03:38:46</t>
+    <t>00:04:12</t>
+  </si>
+  <si>
+    <t>2016-08-12</t>
+  </si>
+  <si>
+    <t>00:39:58</t>
+  </si>
+  <si>
+    <t>35:24:33</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>00:05:52</t>
+  </si>
+  <si>
+    <t>00:00 - 00:30</t>
+  </si>
+  <si>
+    <t>00:17:32</t>
+  </si>
+  <si>
+    <t>00:03:30</t>
+  </si>
+  <si>
+    <t>00:30 - 01:00</t>
+  </si>
+  <si>
+    <t>00:01:32</t>
+  </si>
+  <si>
+    <t>00:27:28</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
+  </si>
+  <si>
+    <t>00:13:44</t>
+  </si>
+  <si>
+    <t>01:00 - 01:30</t>
+  </si>
+  <si>
+    <t>00:10:28</t>
+  </si>
+  <si>
+    <t>01:30 - 02:00</t>
+  </si>
+  <si>
+    <t>00:06:08</t>
+  </si>
+  <si>
+    <t>02:00 - 02:30</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>02:30 - 03:00</t>
+  </si>
+  <si>
+    <t>03:00 - 03:30</t>
+  </si>
+  <si>
+    <t>00:11:53</t>
+  </si>
+  <si>
+    <t>00:05:56</t>
+  </si>
+  <si>
+    <t>03:30 - 04:00</t>
+  </si>
+  <si>
+    <t>04:00 - 04:30</t>
+  </si>
+  <si>
+    <t>04:30 - 05:00</t>
+  </si>
+  <si>
+    <t>05:00 - 05:30</t>
+  </si>
+  <si>
+    <t>05:30 - 06:00</t>
+  </si>
+  <si>
+    <t>00:01:29</t>
+  </si>
+  <si>
+    <t>00:16:15</t>
+  </si>
+  <si>
+    <t>00:04:03</t>
+  </si>
+  <si>
+    <t>06:00 - 06:30</t>
+  </si>
+  <si>
+    <t>06:30 - 07:00</t>
+  </si>
+  <si>
+    <t>00:12:46</t>
+  </si>
+  <si>
+    <t>00:06:23</t>
+  </si>
+  <si>
+    <t>07:00 - 07:30</t>
+  </si>
+  <si>
+    <t>00:35:24</t>
+  </si>
+  <si>
+    <t>00:08:51</t>
+  </si>
+  <si>
+    <t>07:30 - 08:00</t>
+  </si>
+  <si>
+    <t>00:37:39</t>
+  </si>
+  <si>
+    <t>00:04:42</t>
+  </si>
+  <si>
+    <t>08:00 - 08:30</t>
+  </si>
+  <si>
+    <t>00:01:19</t>
+  </si>
+  <si>
+    <t>02:40:05</t>
+  </si>
+  <si>
+    <t>00:08:00</t>
+  </si>
+  <si>
+    <t>08:30 - 09:00</t>
+  </si>
+  <si>
+    <t>00:00:42</t>
+  </si>
+  <si>
+    <t>02:54:35</t>
+  </si>
+  <si>
+    <t>00:06:27</t>
+  </si>
+  <si>
+    <t>09:00 - 09:30</t>
+  </si>
+  <si>
+    <t>00:17:05</t>
+  </si>
+  <si>
+    <t>04:51:04</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>00:06:55</t>
+  </si>
+  <si>
+    <t>09:30 - 10:00</t>
+  </si>
+  <si>
+    <t>03:22:04</t>
+  </si>
+  <si>
+    <t>10:00 - 10:30</t>
+  </si>
+  <si>
+    <t>00:07:35</t>
+  </si>
+  <si>
+    <t>05:05:07</t>
   </si>
   <si>
     <t>00:00:09</t>
   </si>
   <si>
-    <t>00:05:05</t>
-  </si>
-  <si>
-    <t>mparedes</t>
-  </si>
-  <si>
-    <t>00:05:10</t>
-  </si>
-  <si>
-    <t>03:04:40</t>
-  </si>
-  <si>
-    <t>00:05:46</t>
-  </si>
-  <si>
-    <t>nramon</t>
-  </si>
-  <si>
-    <t>00:08:00</t>
-  </si>
-  <si>
-    <t>03:35:39</t>
-  </si>
-  <si>
-    <t>00:04:41</t>
-  </si>
-  <si>
-    <t>ocoa</t>
-  </si>
-  <si>
-    <t>00:00:20</t>
-  </si>
-  <si>
-    <t>01:02:13</t>
-  </si>
-  <si>
-    <t>00:05:39</t>
-  </si>
-  <si>
-    <t>ppimentel</t>
-  </si>
-  <si>
-    <t>00:05:47</t>
-  </si>
-  <si>
-    <t>03:37:39</t>
-  </si>
-  <si>
-    <t>00:06:13</t>
-  </si>
-  <si>
-    <t>rquispe</t>
-  </si>
-  <si>
-    <t>00:49:13</t>
-  </si>
-  <si>
-    <t>00:05:28</t>
-  </si>
-  <si>
-    <t>xvasquez</t>
-  </si>
-  <si>
-    <t>00:07:03</t>
-  </si>
-  <si>
-    <t>02:54:30</t>
-  </si>
-  <si>
-    <t>00:07:16</t>
-  </si>
-  <si>
-    <t>2016-08-08</t>
-  </si>
-  <si>
-    <t>01:24:36</t>
-  </si>
-  <si>
-    <t>47:04:04</t>
-  </si>
-  <si>
-    <t>00:05:43</t>
-  </si>
-  <si>
-    <t>00:00 - 00:30</t>
-  </si>
-  <si>
-    <t>00:00:03</t>
-  </si>
-  <si>
-    <t>00:18:57</t>
-  </si>
-  <si>
-    <t>00:30 - 01:00</t>
-  </si>
-  <si>
-    <t>00:03:38</t>
-  </si>
-  <si>
-    <t>01:00 - 01:30</t>
-  </si>
-  <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>01:30 - 02:00</t>
-  </si>
-  <si>
-    <t>02:00 - 02:30</t>
-  </si>
-  <si>
-    <t>02:30 - 03:00</t>
-  </si>
-  <si>
-    <t>03:00 - 03:30</t>
-  </si>
-  <si>
-    <t>03:30 - 04:00</t>
-  </si>
-  <si>
-    <t>04:00 - 04:30</t>
-  </si>
-  <si>
-    <t>04:30 - 05:00</t>
-  </si>
-  <si>
-    <t>05:00 - 05:30</t>
-  </si>
-  <si>
-    <t>05:30 - 06:00</t>
-  </si>
-  <si>
-    <t>06:00 - 06:30</t>
-  </si>
-  <si>
-    <t>06:30 - 07:00</t>
-  </si>
-  <si>
-    <t>07:00 - 07:30</t>
-  </si>
-  <si>
-    <t>00:02:19</t>
-  </si>
-  <si>
-    <t>07:30 - 08:00</t>
-  </si>
-  <si>
-    <t>00:14:20</t>
-  </si>
-  <si>
-    <t>00:03:35</t>
-  </si>
-  <si>
-    <t>08:00 - 08:30</t>
-  </si>
-  <si>
-    <t>00:00:28</t>
-  </si>
-  <si>
-    <t>01:34:11</t>
-  </si>
-  <si>
-    <t>00:04:57</t>
-  </si>
-  <si>
-    <t>08:30 - 09:00</t>
-  </si>
-  <si>
-    <t>00:00:52</t>
-  </si>
-  <si>
-    <t>02:51:27</t>
-  </si>
-  <si>
-    <t>00:05:11</t>
-  </si>
-  <si>
-    <t>09:00 - 09:30</t>
-  </si>
-  <si>
-    <t>00:05:00</t>
-  </si>
-  <si>
-    <t>04:38:01</t>
-  </si>
-  <si>
-    <t>00:05:20</t>
-  </si>
-  <si>
-    <t>09:30 - 10:00</t>
-  </si>
-  <si>
-    <t>00:09:56</t>
-  </si>
-  <si>
-    <t>02:54:00</t>
-  </si>
-  <si>
-    <t>00:05:07</t>
-  </si>
-  <si>
-    <t>10:00 - 10:30</t>
-  </si>
-  <si>
-    <t>00:01:09</t>
-  </si>
-  <si>
-    <t>04:36:19</t>
-  </si>
-  <si>
-    <t>00:06:16</t>
+    <t>00:07:37</t>
   </si>
   <si>
     <t>10:30 - 11:00</t>
   </si>
   <si>
-    <t>00:31:02</t>
-  </si>
-  <si>
-    <t>05:55:25</t>
-  </si>
-  <si>
-    <t>00:00:24</t>
-  </si>
-  <si>
-    <t>00:05:38</t>
+    <t>00:01:20</t>
+  </si>
+  <si>
+    <t>03:46:54</t>
+  </si>
+  <si>
+    <t>00:05:02</t>
   </si>
   <si>
     <t>11:00 - 11:30</t>
   </si>
   <si>
-    <t>00:18:29</t>
-  </si>
-  <si>
-    <t>05:56:00</t>
-  </si>
-  <si>
-    <t>00:00:16</t>
-  </si>
-  <si>
-    <t>00:06:08</t>
+    <t>00:00:46</t>
+  </si>
+  <si>
+    <t>02:14:17</t>
+  </si>
+  <si>
+    <t>00:04:28</t>
   </si>
   <si>
     <t>11:30 - 12:00</t>
   </si>
   <si>
-    <t>00:13:33</t>
-  </si>
-  <si>
-    <t>04:55:31</t>
-  </si>
-  <si>
-    <t>00:05:40</t>
+    <t>00:01:12</t>
+  </si>
+  <si>
+    <t>04:21:49</t>
+  </si>
+  <si>
+    <t>00:06:14</t>
   </si>
   <si>
     <t>12:00 - 12:30</t>
   </si>
   <si>
-    <t>00:01:36</t>
-  </si>
-  <si>
-    <t>05:09:30</t>
-  </si>
-  <si>
-    <t>00:06:35</t>
+    <t>00:01:05</t>
+  </si>
+  <si>
+    <t>02:45:26</t>
+  </si>
+  <si>
+    <t>00:04:35</t>
   </si>
   <si>
     <t>12:30 - 13:00</t>
   </si>
   <si>
-    <t>00:01:31</t>
-  </si>
-  <si>
-    <t>05:17:56</t>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>00:27:39</t>
+  </si>
+  <si>
+    <t>00:02:07</t>
   </si>
   <si>
     <t>13:00 - 13:30</t>
-  </si>
-  <si>
-    <t>00:00:44</t>
-  </si>
-  <si>
-    <t>02:36:21</t>
   </si>
   <si>
     <t>13:30 - 14:00</t>
@@ -1010,18 +1040,18 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1112,34 +1142,34 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
@@ -1148,10 +1178,10 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
         <v>30</v>
@@ -1160,31 +1190,31 @@
         <v>31</v>
       </c>
       <c r="S2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="T2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="U2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="V2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="W2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="X2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="Y2">
-        <v>83.72</v>
+        <v>100</v>
       </c>
       <c r="Z2">
-        <v>88.37</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>88.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -1192,37 +1222,37 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="G3">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="H3">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="I3">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
         <v>33</v>
@@ -1231,10 +1261,10 @@
         <v>34</v>
       </c>
       <c r="O3">
-        <v>91.08</v>
+        <v>94.44</v>
       </c>
       <c r="P3">
-        <v>8.31</v>
+        <v>5.09</v>
       </c>
       <c r="Q3" t="s">
         <v>35</v>
@@ -1243,31 +1273,31 @@
         <v>36</v>
       </c>
       <c r="S3">
-        <v>84.31</v>
+        <v>91.2</v>
       </c>
       <c r="T3">
-        <v>85.23</v>
+        <v>91.67</v>
       </c>
       <c r="U3">
-        <v>86.15000000000001</v>
+        <v>92.59</v>
       </c>
       <c r="V3">
-        <v>76</v>
+        <v>86.11</v>
       </c>
       <c r="W3">
-        <v>76.92</v>
+        <v>86.57</v>
       </c>
       <c r="X3">
-        <v>77.84999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="Y3">
-        <v>82.89</v>
+        <v>90.73</v>
       </c>
       <c r="Z3">
-        <v>83.89</v>
+        <v>91.22</v>
       </c>
       <c r="AA3">
-        <v>84.90000000000001</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -1275,34 +1305,34 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H4">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>38</v>
@@ -1311,123 +1341,108 @@
         <v>39</v>
       </c>
       <c r="O4">
-        <v>90.63</v>
+        <v>87.67</v>
       </c>
       <c r="P4">
-        <v>9.380000000000001</v>
+        <v>12.33</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S4">
-        <v>90.63</v>
+        <v>93.15</v>
       </c>
       <c r="T4">
-        <v>90.63</v>
+        <v>93.15</v>
       </c>
       <c r="U4">
-        <v>90.63</v>
+        <v>94.52</v>
       </c>
       <c r="V4">
-        <v>81.25</v>
+        <v>80.82</v>
       </c>
       <c r="W4">
-        <v>81.25</v>
+        <v>80.82</v>
       </c>
       <c r="X4">
-        <v>81.25</v>
+        <v>82.19</v>
       </c>
       <c r="Y4">
-        <v>89.66</v>
+        <v>92.19</v>
       </c>
       <c r="Z4">
-        <v>89.66</v>
+        <v>92.19</v>
       </c>
       <c r="AA4">
-        <v>89.66</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C5">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="G5">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>108</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5">
-        <v>96.09</v>
-      </c>
-      <c r="P5">
-        <v>3.91</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
         <v>45</v>
       </c>
       <c r="S5">
-        <v>85.94</v>
+        <v>83.78</v>
       </c>
       <c r="T5">
-        <v>86.72</v>
+        <v>86.49</v>
       </c>
       <c r="U5">
-        <v>88.28</v>
+        <v>86.49</v>
       </c>
       <c r="V5">
-        <v>82.03</v>
+        <v>83.78</v>
       </c>
       <c r="W5">
-        <v>82.81</v>
+        <v>86.49</v>
       </c>
       <c r="X5">
-        <v>84.38</v>
+        <v>86.49</v>
       </c>
       <c r="Y5">
-        <v>85.37</v>
+        <v>83.78</v>
       </c>
       <c r="Z5">
-        <v>86.18000000000001</v>
+        <v>86.49</v>
       </c>
       <c r="AA5">
-        <v>87.8</v>
+        <v>86.49</v>
       </c>
     </row>
   </sheetData>
@@ -1478,15 +1493,15 @@
     <col min="16" max="16" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1577,22 +1592,22 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
         <v>47</v>
@@ -1604,687 +1619,702 @@
         <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="T2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="U2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="V2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="W2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="X2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="Y2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="Z2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
       <c r="AA2">
-        <v>83.33</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3">
         <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S3">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="T3">
-        <v>88.09999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="U3">
-        <v>90.48</v>
+        <v>85.71</v>
       </c>
       <c r="V3">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="W3">
-        <v>88.09999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="X3">
-        <v>90.48</v>
+        <v>85.71</v>
       </c>
       <c r="Y3">
-        <v>83.33</v>
+        <v>85.71</v>
       </c>
       <c r="Z3">
-        <v>88.09999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="AA3">
-        <v>90.48</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>95.83</v>
+      </c>
+      <c r="P4">
+        <v>4.17</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S4">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="T4">
-        <v>90.63</v>
+        <v>95.83</v>
       </c>
       <c r="U4">
-        <v>90.63</v>
+        <v>95.83</v>
       </c>
       <c r="V4">
         <v>87.5</v>
       </c>
       <c r="W4">
-        <v>90.63</v>
+        <v>91.67</v>
       </c>
       <c r="X4">
-        <v>90.63</v>
+        <v>91.67</v>
       </c>
       <c r="Y4">
-        <v>87.5</v>
+        <v>91.3</v>
       </c>
       <c r="Z4">
-        <v>90.63</v>
+        <v>95.65</v>
       </c>
       <c r="AA4">
-        <v>90.63</v>
+        <v>95.65</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S5">
-        <v>84</v>
+        <v>84.62</v>
       </c>
       <c r="T5">
-        <v>84</v>
+        <v>84.62</v>
       </c>
       <c r="U5">
-        <v>86</v>
+        <v>84.62</v>
       </c>
       <c r="V5">
-        <v>84</v>
+        <v>84.62</v>
       </c>
       <c r="W5">
-        <v>84</v>
+        <v>84.62</v>
       </c>
       <c r="X5">
-        <v>86</v>
+        <v>84.62</v>
       </c>
       <c r="Y5">
-        <v>84</v>
+        <v>84.62</v>
       </c>
       <c r="Z5">
-        <v>84</v>
+        <v>84.62</v>
       </c>
       <c r="AA5">
-        <v>86</v>
+        <v>84.62</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O6">
         <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="T6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="U6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="V6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="W6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="X6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="Y6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="Z6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
       <c r="AA6">
-        <v>97.22</v>
+        <v>86.96</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O7">
         <v>100</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="S7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="T7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="U7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="V7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="W7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="X7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="Y7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="Z7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="AA7">
-        <v>85.70999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O8">
         <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>89.29</v>
       </c>
       <c r="T8">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="U8">
-        <v>100</v>
+        <v>96.43</v>
       </c>
       <c r="V8">
-        <v>100</v>
+        <v>89.29</v>
       </c>
       <c r="W8">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="X8">
-        <v>100</v>
+        <v>96.43</v>
       </c>
       <c r="Y8">
-        <v>100</v>
+        <v>89.29</v>
       </c>
       <c r="Z8">
-        <v>100</v>
+        <v>92.86</v>
       </c>
       <c r="AA8">
-        <v>100</v>
+        <v>96.43</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O9">
         <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="T9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="U9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="V9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="W9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="X9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="Y9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="Z9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
       <c r="AA9">
-        <v>100</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
         <v>40</v>
       </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10">
-        <v>31</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-      <c r="I10">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>81</v>
-      </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S10">
-        <v>77.5</v>
+        <v>100</v>
       </c>
       <c r="T10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="U10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="V10">
-        <v>77.5</v>
+        <v>100</v>
       </c>
       <c r="W10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="X10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y10">
-        <v>77.5</v>
+        <v>100</v>
       </c>
       <c r="Z10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA10">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11">
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S11">
-        <v>83.33</v>
+        <v>82.35</v>
       </c>
       <c r="T11">
-        <v>83.33</v>
+        <v>88.24</v>
       </c>
       <c r="U11">
-        <v>83.33</v>
+        <v>88.24</v>
       </c>
       <c r="V11">
-        <v>83.33</v>
+        <v>82.35</v>
       </c>
       <c r="W11">
-        <v>83.33</v>
+        <v>88.24</v>
       </c>
       <c r="X11">
-        <v>83.33</v>
+        <v>88.24</v>
       </c>
       <c r="Y11">
-        <v>83.33</v>
+        <v>82.35</v>
       </c>
       <c r="Z11">
-        <v>83.33</v>
+        <v>88.24</v>
       </c>
       <c r="AA11">
-        <v>83.33</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O12">
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="R12" t="s">
         <v>94</v>
       </c>
       <c r="S12">
-        <v>81.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="T12">
-        <v>86.05</v>
+        <v>100</v>
       </c>
       <c r="U12">
-        <v>88.37</v>
+        <v>100</v>
       </c>
       <c r="V12">
-        <v>81.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="W12">
-        <v>86.05</v>
+        <v>100</v>
       </c>
       <c r="X12">
-        <v>88.37</v>
+        <v>100</v>
       </c>
       <c r="Y12">
-        <v>81.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="Z12">
-        <v>86.05</v>
+        <v>100</v>
       </c>
       <c r="AA12">
-        <v>88.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -2292,25 +2322,25 @@
         <v>95</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>29</v>
+      </c>
+      <c r="I13">
         <v>30</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>32</v>
-      </c>
-      <c r="G13">
-        <v>26</v>
-      </c>
-      <c r="H13">
-        <v>26</v>
-      </c>
-      <c r="I13">
-        <v>26</v>
       </c>
       <c r="M13" t="s">
         <v>96</v>
@@ -2319,40 +2349,40 @@
         <v>97</v>
       </c>
       <c r="O13">
-        <v>93.75</v>
+        <v>97.06</v>
       </c>
       <c r="Q13" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
         <v>98</v>
       </c>
       <c r="S13">
-        <v>81.25</v>
+        <v>85.29</v>
       </c>
       <c r="T13">
-        <v>81.25</v>
+        <v>85.29</v>
       </c>
       <c r="U13">
-        <v>81.25</v>
+        <v>88.24</v>
       </c>
       <c r="V13">
-        <v>81.25</v>
+        <v>85.29</v>
       </c>
       <c r="W13">
-        <v>81.25</v>
+        <v>85.29</v>
       </c>
       <c r="X13">
-        <v>81.25</v>
+        <v>88.24</v>
       </c>
       <c r="Y13">
-        <v>81.25</v>
+        <v>85.29</v>
       </c>
       <c r="Z13">
-        <v>81.25</v>
+        <v>85.29</v>
       </c>
       <c r="AA13">
-        <v>81.25</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -2360,22 +2390,22 @@
         <v>99</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G14">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I14">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
         <v>100</v>
@@ -2387,205 +2417,205 @@
         <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="S14">
-        <v>80.43000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="T14">
-        <v>80.43000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="U14">
-        <v>82.61</v>
+        <v>92.59</v>
       </c>
       <c r="V14">
-        <v>80.43000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="W14">
-        <v>80.43000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="X14">
-        <v>82.61</v>
+        <v>92.59</v>
       </c>
       <c r="Y14">
-        <v>80.43000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="Z14">
-        <v>80.43000000000001</v>
+        <v>88.89</v>
       </c>
       <c r="AA14">
-        <v>82.61</v>
+        <v>92.59</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
         <v>103</v>
       </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>11</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>104</v>
       </c>
-      <c r="N15" t="s">
-        <v>105</v>
-      </c>
       <c r="O15">
         <v>100</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="S15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="T15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="U15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="V15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="W15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="X15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="Y15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="Z15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="AA15">
-        <v>100</v>
+        <v>93.33</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" t="s">
         <v>107</v>
       </c>
-      <c r="B16">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <v>35</v>
-      </c>
-      <c r="G16">
-        <v>27</v>
-      </c>
-      <c r="H16">
-        <v>27</v>
-      </c>
-      <c r="I16">
-        <v>28</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" t="s">
         <v>108</v>
       </c>
-      <c r="N16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16">
-        <v>100</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>93</v>
-      </c>
-      <c r="R16" t="s">
-        <v>110</v>
-      </c>
       <c r="S16">
-        <v>77.14</v>
+        <v>93.75</v>
       </c>
       <c r="T16">
-        <v>77.14</v>
+        <v>93.75</v>
       </c>
       <c r="U16">
-        <v>80</v>
+        <v>93.75</v>
       </c>
       <c r="V16">
-        <v>77.14</v>
+        <v>93.75</v>
       </c>
       <c r="W16">
-        <v>77.14</v>
+        <v>93.75</v>
       </c>
       <c r="X16">
-        <v>80</v>
+        <v>93.75</v>
       </c>
       <c r="Y16">
-        <v>77.14</v>
+        <v>93.75</v>
       </c>
       <c r="Z16">
-        <v>77.14</v>
+        <v>93.75</v>
       </c>
       <c r="AA16">
-        <v>80</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
         <v>111</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17">
-        <v>100</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>75</v>
-      </c>
-      <c r="R17" t="s">
-        <v>113</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -2617,7 +2647,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -2629,55 +2659,55 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I18">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="Q18" t="s">
         <v>115</v>
       </c>
-      <c r="N18" t="s">
+      <c r="R18" t="s">
         <v>116</v>
       </c>
-      <c r="O18">
-        <v>100</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>83</v>
-      </c>
-      <c r="R18" t="s">
-        <v>117</v>
-      </c>
       <c r="S18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="T18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="U18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="V18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="W18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="X18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="Y18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="Z18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
       <c r="AA18">
-        <v>79.17</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2728,15 +2758,15 @@
     <col min="16" max="16" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2824,85 +2854,85 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>383</v>
+      </c>
+      <c r="C2">
+        <v>361</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>362</v>
+      </c>
+      <c r="G2">
+        <v>326</v>
+      </c>
+      <c r="H2">
+        <v>329</v>
+      </c>
+      <c r="I2">
+        <v>332</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>118</v>
       </c>
-      <c r="B2">
-        <v>535</v>
-      </c>
-      <c r="C2">
-        <v>491</v>
-      </c>
-      <c r="D2">
-        <v>42</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>493</v>
-      </c>
-      <c r="G2">
-        <v>414</v>
-      </c>
-      <c r="H2">
-        <v>420</v>
-      </c>
-      <c r="I2">
-        <v>425</v>
-      </c>
-      <c r="J2">
-        <v>42</v>
-      </c>
-      <c r="K2">
-        <v>42</v>
-      </c>
-      <c r="L2">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>119</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2">
+        <v>94.26</v>
+      </c>
+      <c r="P2">
+        <v>5.48</v>
+      </c>
+      <c r="Q2" t="s">
         <v>120</v>
-      </c>
-      <c r="O2">
-        <v>91.78</v>
-      </c>
-      <c r="P2">
-        <v>7.85</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>93</v>
       </c>
       <c r="R2" t="s">
         <v>121</v>
       </c>
       <c r="S2">
-        <v>85.23</v>
+        <v>90.6</v>
       </c>
       <c r="T2">
-        <v>86.36</v>
+        <v>91.38</v>
       </c>
       <c r="U2">
-        <v>87.29000000000001</v>
+        <v>92.17</v>
       </c>
       <c r="V2">
-        <v>77.38</v>
+        <v>85.12</v>
       </c>
       <c r="W2">
-        <v>78.5</v>
+        <v>85.9</v>
       </c>
       <c r="X2">
-        <v>79.44</v>
+        <v>86.68</v>
       </c>
       <c r="Y2">
-        <v>83.98</v>
+        <v>90.06</v>
       </c>
       <c r="Z2">
-        <v>85.19</v>
+        <v>90.88</v>
       </c>
       <c r="AA2">
-        <v>86.20999999999999</v>
+        <v>91.71</v>
       </c>
     </row>
   </sheetData>
@@ -2949,19 +2979,19 @@
     <col min="12" max="12" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -3052,49 +3082,34 @@
         <v>122</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>123</v>
       </c>
-      <c r="N2" t="s">
-        <v>124</v>
-      </c>
       <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="P2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
         <v>124</v>
@@ -3109,13 +3124,13 @@
         <v>100</v>
       </c>
       <c r="V2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="X2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y2">
         <v>100</v>
@@ -3132,13 +3147,16 @@
         <v>125</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3149,272 +3167,506 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="P3">
+        <v>66.67</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="R3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S3">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="T3">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="U3">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="V3">
-        <v>100</v>
+        <v>16.67</v>
       </c>
       <c r="W3">
-        <v>100</v>
+        <v>16.67</v>
       </c>
       <c r="X3">
-        <v>100</v>
+        <v>16.67</v>
       </c>
       <c r="Y3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Z3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AA3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
+      <c r="Z4">
+        <v>100</v>
+      </c>
+      <c r="AA4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5">
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5">
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>100</v>
+      </c>
+      <c r="Z5">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>100</v>
+      </c>
+      <c r="Y8">
+        <v>100</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>146</v>
+      </c>
+      <c r="O13">
+        <v>66.67</v>
+      </c>
+      <c r="P13">
+        <v>33.33</v>
       </c>
       <c r="Q13" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>128</v>
+        <v>147</v>
+      </c>
+      <c r="S13">
+        <v>66.67</v>
+      </c>
+      <c r="T13">
+        <v>83.33</v>
+      </c>
+      <c r="U13">
+        <v>83.33</v>
+      </c>
+      <c r="V13">
+        <v>33.33</v>
+      </c>
+      <c r="W13">
+        <v>50</v>
+      </c>
+      <c r="X13">
+        <v>50</v>
+      </c>
+      <c r="Y13">
+        <v>50</v>
+      </c>
+      <c r="Z13">
+        <v>75</v>
+      </c>
+      <c r="AA13">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>66.67</v>
+      </c>
+      <c r="P15">
+        <v>33.33</v>
       </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="S15">
         <v>100</v>
@@ -3426,13 +3678,13 @@
         <v>100</v>
       </c>
       <c r="V15">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="W15">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="X15">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="Y15">
         <v>100</v>
@@ -3446,40 +3698,40 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O16">
         <v>100</v>
       </c>
       <c r="Q16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="R16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="S16">
         <v>100</v>
@@ -3511,40 +3763,40 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O17">
         <v>100</v>
       </c>
       <c r="Q17" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -3576,105 +3828,105 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O18">
         <v>100</v>
       </c>
       <c r="Q18" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="R18" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="S18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="U18">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="W18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X18">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Y18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z18">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA18">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="O19">
         <v>100</v>
       </c>
       <c r="Q19" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="R19" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="S19">
         <v>100</v>
@@ -3706,514 +3958,481 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I20">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O20">
-        <v>98.11</v>
+        <v>93.33</v>
       </c>
       <c r="P20">
-        <v>1.89</v>
+        <v>6.67</v>
       </c>
       <c r="Q20" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="R20" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="S20">
-        <v>92.45</v>
+        <v>64.44</v>
       </c>
       <c r="T20">
-        <v>92.45</v>
+        <v>66.67</v>
       </c>
       <c r="U20">
-        <v>92.45</v>
+        <v>66.67</v>
       </c>
       <c r="V20">
-        <v>90.56999999999999</v>
+        <v>57.78</v>
       </c>
       <c r="W20">
-        <v>90.56999999999999</v>
+        <v>60</v>
       </c>
       <c r="X20">
-        <v>90.56999999999999</v>
+        <v>60</v>
       </c>
       <c r="Y20">
-        <v>92.31</v>
+        <v>61.9</v>
       </c>
       <c r="Z20">
-        <v>92.31</v>
+        <v>64.29</v>
       </c>
       <c r="AA20">
-        <v>92.31</v>
+        <v>64.29</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21">
         <v>34</v>
       </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="F21">
-        <v>34</v>
-      </c>
-      <c r="G21">
-        <v>23</v>
-      </c>
-      <c r="H21">
-        <v>24</v>
-      </c>
-      <c r="I21">
-        <v>24</v>
-      </c>
-      <c r="J21">
-        <v>16</v>
-      </c>
-      <c r="K21">
-        <v>16</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
       <c r="M21" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="O21">
-        <v>68</v>
-      </c>
-      <c r="P21">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="S21">
-        <v>78</v>
+        <v>86.84</v>
       </c>
       <c r="T21">
-        <v>80</v>
+        <v>86.84</v>
       </c>
       <c r="U21">
-        <v>80</v>
+        <v>89.47</v>
       </c>
       <c r="V21">
-        <v>46</v>
+        <v>86.84</v>
       </c>
       <c r="W21">
-        <v>48</v>
+        <v>86.84</v>
       </c>
       <c r="X21">
-        <v>48</v>
+        <v>89.47</v>
       </c>
       <c r="Y21">
-        <v>67.65000000000001</v>
+        <v>86.84</v>
       </c>
       <c r="Z21">
-        <v>70.59</v>
+        <v>86.84</v>
       </c>
       <c r="AA21">
-        <v>70.59</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I22">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
       </c>
       <c r="Q22" t="s">
+        <v>176</v>
+      </c>
+      <c r="R22" t="s">
+        <v>177</v>
+      </c>
+      <c r="S22">
+        <v>80</v>
+      </c>
+      <c r="T22">
+        <v>82</v>
+      </c>
+      <c r="U22">
+        <v>84</v>
+      </c>
+      <c r="V22">
+        <v>60</v>
+      </c>
+      <c r="W22">
+        <v>62</v>
+      </c>
+      <c r="X22">
+        <v>64</v>
+      </c>
+      <c r="Y22">
         <v>75</v>
       </c>
-      <c r="R22" t="s">
-        <v>164</v>
-      </c>
-      <c r="S22">
-        <v>100</v>
-      </c>
-      <c r="T22">
-        <v>100</v>
-      </c>
-      <c r="U22">
-        <v>100</v>
-      </c>
-      <c r="V22">
-        <v>100</v>
-      </c>
-      <c r="W22">
-        <v>100</v>
-      </c>
-      <c r="X22">
-        <v>100</v>
-      </c>
-      <c r="Y22">
-        <v>100</v>
-      </c>
       <c r="Z22">
-        <v>100</v>
+        <v>77.5</v>
       </c>
       <c r="AA22">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I23">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="O23">
-        <v>84</v>
+        <v>97.83</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>2.17</v>
       </c>
       <c r="Q23" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="R23" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="S23">
-        <v>62.67</v>
+        <v>100</v>
       </c>
       <c r="T23">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="U23">
-        <v>70.67</v>
+        <v>100</v>
       </c>
       <c r="V23">
-        <v>46.67</v>
+        <v>97.83</v>
       </c>
       <c r="W23">
-        <v>50.67</v>
+        <v>97.83</v>
       </c>
       <c r="X23">
-        <v>54.67</v>
+        <v>97.83</v>
       </c>
       <c r="Y23">
-        <v>55.56</v>
+        <v>100</v>
       </c>
       <c r="Z23">
-        <v>60.32</v>
+        <v>100</v>
       </c>
       <c r="AA23">
-        <v>65.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>57</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I24">
-        <v>39</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>9</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="N24" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="O24">
-        <v>85.06999999999999</v>
-      </c>
-      <c r="P24">
-        <v>13.43</v>
+        <v>96.67</v>
       </c>
       <c r="Q24" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="R24" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="S24">
-        <v>68.66</v>
+        <v>100</v>
       </c>
       <c r="T24">
-        <v>68.66</v>
+        <v>100</v>
       </c>
       <c r="U24">
-        <v>71.64</v>
+        <v>100</v>
       </c>
       <c r="V24">
-        <v>55.22</v>
+        <v>100</v>
       </c>
       <c r="W24">
-        <v>55.22</v>
+        <v>100</v>
       </c>
       <c r="X24">
-        <v>58.21</v>
+        <v>100</v>
       </c>
       <c r="Y24">
-        <v>63.79</v>
+        <v>100</v>
       </c>
       <c r="Z24">
-        <v>63.79</v>
+        <v>100</v>
       </c>
       <c r="AA24">
-        <v>67.23999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B25">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C25">
-        <v>51</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F25">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I25">
-        <v>39</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="O25">
-        <v>92.73</v>
-      </c>
-      <c r="P25">
-        <v>5.45</v>
+        <v>100</v>
       </c>
       <c r="Q25" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="R25" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="S25">
-        <v>74.55</v>
+        <v>100</v>
       </c>
       <c r="T25">
-        <v>76.36</v>
+        <v>100</v>
       </c>
       <c r="U25">
-        <v>76.36</v>
+        <v>100</v>
       </c>
       <c r="V25">
-        <v>69.09</v>
+        <v>100</v>
       </c>
       <c r="W25">
-        <v>70.91</v>
+        <v>100</v>
       </c>
       <c r="X25">
-        <v>70.91</v>
+        <v>100</v>
       </c>
       <c r="Y25">
-        <v>73.08</v>
+        <v>100</v>
       </c>
       <c r="Z25">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AA25">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G26">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M26" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O26">
         <v>100</v>
       </c>
       <c r="Q26" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="R26" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="S26">
-        <v>97.87</v>
+        <v>100</v>
       </c>
       <c r="T26">
         <v>100</v>
@@ -4222,7 +4441,7 @@
         <v>100</v>
       </c>
       <c r="V26">
-        <v>97.87</v>
+        <v>100</v>
       </c>
       <c r="W26">
         <v>100</v>
@@ -4231,7 +4450,7 @@
         <v>100</v>
       </c>
       <c r="Y26">
-        <v>97.87</v>
+        <v>100</v>
       </c>
       <c r="Z26">
         <v>100</v>
@@ -4242,40 +4461,40 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="I27">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="O27">
         <v>100</v>
       </c>
       <c r="Q27" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="R27" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="S27">
         <v>100</v>
@@ -4307,424 +4526,376 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-      <c r="G28">
-        <v>27</v>
-      </c>
-      <c r="H28">
-        <v>27</v>
-      </c>
-      <c r="I28">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="M28" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
-      </c>
-      <c r="O28">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="Q28" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="R28" t="s">
-        <v>108</v>
-      </c>
-      <c r="S28">
-        <v>100</v>
-      </c>
-      <c r="T28">
-        <v>100</v>
-      </c>
-      <c r="U28">
-        <v>100</v>
-      </c>
-      <c r="V28">
-        <v>100</v>
-      </c>
-      <c r="W28">
-        <v>100</v>
-      </c>
-      <c r="X28">
-        <v>100</v>
-      </c>
-      <c r="Y28">
-        <v>100</v>
-      </c>
-      <c r="Z28">
-        <v>100</v>
-      </c>
-      <c r="AA28">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q29" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R29" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M30" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q30" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R30" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N31" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q31" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R31" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="M32" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N32" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q32" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R32" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="M33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N34" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q34" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R34" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R35" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R37" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M38" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N38" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q38" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R38" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N39" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q39" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R39" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M42" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N42" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q42" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R42" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M44" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N44" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q44" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R44" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M45" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N45" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q45" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R45" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N46" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q46" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R46" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N48" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q48" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R48" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M49" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="N49" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q49" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="R49" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
